--- a/Shop3/wwwroot/uploaded/excels/ProductImportTemplate.xlsx
+++ b/Shop3/wwwroot/uploaded/excels/ProductImportTemplate.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data c\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dowload\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3E1E33-C57F-4191-8A46-9C439559CE34}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Description</t>
   </si>
@@ -59,28 +60,25 @@
     <t>Home Flag</t>
   </si>
   <si>
-    <t>sp1</t>
-  </si>
-  <si>
-    <t>mô tả 1</t>
-  </si>
-  <si>
-    <t>mô tả chi tiết</t>
-  </si>
-  <si>
-    <t>sp2</t>
-  </si>
-  <si>
-    <t>mô tả 2</t>
-  </si>
-  <si>
-    <t>sp3</t>
+    <t>dgfdg</t>
+  </si>
+  <si>
+    <t>fgdg</t>
+  </si>
+  <si>
+    <t>dfgf</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>sdfdgfdg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -130,20 +128,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K23" totalsRowShown="0">
-  <autoFilter ref="A1:K23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K23" totalsRowShown="0">
+  <autoFilter ref="A1:K23" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Description"/>
-    <tableColumn id="4" name="Original Price"/>
-    <tableColumn id="5" name="Price"/>
-    <tableColumn id="6" name="Promotion Price"/>
-    <tableColumn id="8" name="Content"/>
-    <tableColumn id="9" name="Seo Keywords"/>
-    <tableColumn id="10" name="Seo Description"/>
-    <tableColumn id="11" name="Status"/>
-    <tableColumn id="12" name="Home Flag"/>
-    <tableColumn id="13" name="Hot Flag"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Original Price"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Price"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Promotion Price"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Content"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Seo Keywords"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Seo Description"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Status"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Home Flag"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Hot Flag"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -411,11 +409,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,32 +467,32 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>2222</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>3434</v>
+      </c>
+      <c r="D2">
+        <v>3434</v>
+      </c>
+      <c r="E2">
+        <v>34344</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="C2">
-        <v>2000</v>
-      </c>
-      <c r="D2">
-        <v>5000</v>
-      </c>
-      <c r="E2">
-        <v>4000</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
+      <c r="I2" t="s">
+        <v>14</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -504,72 +502,37 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>14</v>
+      <c r="A3">
+        <v>2223</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3">
-        <v>2000</v>
+        <v>3434</v>
       </c>
       <c r="D3">
-        <v>5000</v>
+        <v>3434</v>
       </c>
       <c r="E3">
-        <v>4000</v>
+        <v>34344</v>
       </c>
       <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
+      <c r="I3" t="s">
+        <v>14</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
       </c>
       <c r="K3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>2000</v>
-      </c>
-      <c r="D4">
-        <v>5000</v>
-      </c>
-      <c r="E4">
-        <v>4000</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" t="b">
         <v>1</v>
       </c>
     </row>
